--- a/nodes_source_analyses/households/households_lighting_efficient_fluorescent_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_lighting_efficient_fluorescent_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -254,9 +262,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>MW</t>
@@ -346,16 +351,20 @@
   <si>
     <t>http://refman.et-model.com/publications/1904</t>
   </si>
+  <si>
+    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+]\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,11 +482,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <i/>
@@ -1073,7 +1077,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1102,7 +1106,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1136,7 +1140,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1150,44 +1154,44 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1429,80 +1433,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1734,7 +1673,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2171,34 +2110,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="16"/>
+    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2207,7 +2146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>54</v>
@@ -2216,7 +2155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2225,29 +2164,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="69" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="70"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="71" t="s">
         <v>57</v>
@@ -2256,33 +2195,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="71"/>
       <c r="C12" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="71"/>
       <c r="C13" s="74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="71"/>
       <c r="C15" s="72"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="71" t="s">
         <v>62</v>
@@ -2291,49 +2230,49 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="71"/>
       <c r="C17" s="76" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="71"/>
       <c r="C18" s="77" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="71"/>
       <c r="C19" s="78" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="79"/>
       <c r="C20" s="80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="79"/>
       <c r="C21" s="81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="79"/>
       <c r="C22" s="82" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="79"/>
       <c r="C23" s="83" t="s">
         <v>70</v>
@@ -2342,85 +2281,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="34" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="34" customWidth="1"/>
     <col min="6" max="6" width="4" style="34" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="34" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="41.875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="7" max="7" width="26.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="96" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="99"/>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="99"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="102"/>
       <c r="C5" s="103"/>
       <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2431,7 +2364,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="2:11" s="19" customFormat="1">
+    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
       <c r="C8" s="13" t="s">
         <v>21</v>
@@ -2452,7 +2385,7 @@
       </c>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="2:11" s="19" customFormat="1">
+    <row r="9" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="11"/>
       <c r="D9" s="26"/>
@@ -2463,10 +2396,10 @@
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:11" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="11"/>
@@ -2476,13 +2409,13 @@
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="44">
         <f>'Research data'!G7</f>
@@ -2499,7 +2432,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="29"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="50"/>
       <c r="D12" s="17"/>
@@ -2511,10 +2444,10 @@
       <c r="J12" s="39"/>
       <c r="K12" s="29"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="29"/>
@@ -2525,7 +2458,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="29"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="50" t="s">
         <v>49</v>
@@ -2548,7 +2481,7 @@
       <c r="J14" s="39"/>
       <c r="K14" s="29"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="50" t="s">
         <v>50</v>
@@ -2571,7 +2504,7 @@
       <c r="J15" s="39"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="30"/>
       <c r="D16" s="17"/>
@@ -2583,7 +2516,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
       <c r="C17" s="28" t="s">
         <v>4</v>
@@ -2597,7 +2530,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="50" t="s">
         <v>47</v>
@@ -2620,7 +2553,7 @@
       <c r="J18" s="39"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
       <c r="C19" s="49" t="s">
         <v>33</v>
@@ -2640,7 +2573,7 @@
       <c r="J19" s="39"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -2653,47 +2586,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>546100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2708,27 +2604,27 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="34" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="34" customWidth="1"/>
     <col min="3" max="3" width="28" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="34" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="34" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="34" customWidth="1"/>
-    <col min="8" max="8" width="3.875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="4.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="34" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="34" customWidth="1"/>
     <col min="12" max="12" width="5" style="34" customWidth="1"/>
-    <col min="13" max="13" width="7.875" style="34" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="34" customWidth="1"/>
-    <col min="15" max="15" width="31.125" style="34" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="34"/>
+    <col min="13" max="13" width="7.85546875" style="34" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="34" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" style="34" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="16" thickBot="1"/>
-    <row r="3" spans="2:15">
+    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -2744,10 +2640,10 @@
       <c r="N3" s="36"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="2:15" s="19" customFormat="1">
+    <row r="4" spans="2:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2774,7 +2670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -2790,10 +2686,10 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -2808,7 +2704,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1">
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="33" t="s">
         <v>17</v>
@@ -2816,7 +2712,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="44">
         <f>ROUND(AVERAGE(I7,K7,M7),6)</f>
@@ -2840,7 +2736,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="2:15" ht="16" thickBot="1">
+    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="31" t="s">
         <v>41</v>
@@ -2848,7 +2744,7 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="48">
         <v>23</v>
@@ -2868,7 +2764,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
       <c r="C9" s="31"/>
       <c r="D9" s="33"/>
@@ -2884,7 +2780,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
       <c r="C10" s="28" t="s">
         <v>4</v>
@@ -2902,7 +2798,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="2:15" ht="16" thickBot="1">
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="30" t="s">
         <v>39</v>
@@ -2936,7 +2832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -2952,10 +2848,10 @@
       <c r="N12" s="29"/>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2970,7 +2866,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="31"/>
     </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="30" t="s">
         <v>45</v>
@@ -2978,7 +2874,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="45">
         <f>ROUND(AVERAGE(I14,K14,M14),2)</f>
@@ -3004,7 +2900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="16" thickBot="1">
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="46" t="s">
         <v>5</v>
@@ -3035,11 +2931,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3054,22 +2945,22 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="53" customWidth="1"/>
-    <col min="2" max="2" width="2.375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="53" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="59" customWidth="1"/>
-    <col min="9" max="9" width="34.25" style="59" customWidth="1"/>
-    <col min="10" max="10" width="53.25" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="53"/>
+    <col min="1" max="1" width="3.7109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="53" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="59" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -3080,7 +2971,7 @@
       <c r="I2" s="60"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -3093,14 +2984,14 @@
       <c r="I3" s="14"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="2:10" s="52" customFormat="1">
+    <row r="4" spans="2:10" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="89"/>
       <c r="C5" s="13" t="s">
         <v>18</v>
@@ -3115,19 +3006,19 @@
         <v>19</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="90" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="11"/>
       <c r="D6" s="52"/>
@@ -3138,7 +3029,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="62"/>
       <c r="D7" s="52" t="s">
@@ -3151,17 +3042,17 @@
         <v>2013</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="93" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="57"/>
       <c r="C8" s="63" t="s">
         <v>43</v>
@@ -3174,7 +3065,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="64" t="s">
         <v>17</v>
@@ -3187,7 +3078,7 @@
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="62"/>
       <c r="D10" s="65"/>
@@ -3198,7 +3089,7 @@
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="57"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62" t="s">
@@ -3215,13 +3106,13 @@
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="93" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="63" t="s">
         <v>43</v>
@@ -3234,7 +3125,7 @@
       <c r="I12" s="52"/>
       <c r="J12" s="58"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="64" t="s">
         <v>17</v>
@@ -3247,7 +3138,7 @@
       <c r="I13" s="52"/>
       <c r="J13" s="58"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="57"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -3258,7 +3149,7 @@
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62" t="s">
@@ -3271,17 +3162,17 @@
         <v>2013</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
       <c r="C16" s="63" t="s">
         <v>43</v>
@@ -3294,7 +3185,7 @@
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="57"/>
       <c r="C17" s="64" t="s">
         <v>17</v>
@@ -3307,7 +3198,7 @@
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="57"/>
       <c r="C18" s="52"/>
       <c r="D18" s="62"/>
@@ -3318,7 +3209,7 @@
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="57"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62" t="s">
@@ -3337,7 +3228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="66" t="s">
         <v>44</v>
@@ -3361,11 +3252,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7 G15" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3380,18 +3266,18 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="53"/>
-    <col min="4" max="5" width="10.5" style="53" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="53"/>
+    <col min="1" max="1" width="3.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="53"/>
+    <col min="4" max="5" width="10.42578125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="53" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -3403,7 +3289,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="2:11" s="19" customFormat="1">
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="56"/>
       <c r="C3" s="13" t="s">
         <v>0</v>
@@ -3419,7 +3305,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" s="19" customFormat="1">
+    <row r="4" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3431,7 +3317,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
       <c r="C5" s="52" t="s">
         <v>30</v>
@@ -3445,7 +3331,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52" t="s">
@@ -3459,7 +3345,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -3471,7 +3357,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="57"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
@@ -3483,7 +3369,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
@@ -3495,7 +3381,7 @@
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
@@ -3507,7 +3393,7 @@
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="57"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -3519,7 +3405,7 @@
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -3531,7 +3417,7 @@
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -3543,7 +3429,7 @@
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="57"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3555,7 +3441,7 @@
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -3567,7 +3453,7 @@
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -3579,7 +3465,7 @@
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="57"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52">
@@ -3593,7 +3479,7 @@
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="57"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -3605,7 +3491,7 @@
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="57"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -3617,7 +3503,7 @@
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -3629,7 +3515,7 @@
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52" t="s">
@@ -3643,7 +3529,7 @@
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="57"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -3655,7 +3541,7 @@
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="57"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
@@ -3667,7 +3553,7 @@
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="57"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -3679,7 +3565,7 @@
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="57"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
@@ -3691,7 +3577,7 @@
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="57"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -3703,7 +3589,7 @@
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="57"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -3715,7 +3601,7 @@
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="57"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -3727,7 +3613,7 @@
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="57"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -3739,7 +3625,7 @@
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="57"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -3751,7 +3637,7 @@
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="57"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52">
@@ -3765,7 +3651,7 @@
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="57"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -3777,7 +3663,7 @@
       <c r="J32" s="52"/>
       <c r="K32" s="52"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="57"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
@@ -3789,7 +3675,7 @@
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="57"/>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
@@ -3801,7 +3687,7 @@
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="57"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
@@ -3813,7 +3699,7 @@
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="57"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
@@ -3825,7 +3711,7 @@
       <c r="J36" s="52"/>
       <c r="K36" s="52"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="57"/>
       <c r="C37" s="52"/>
       <c r="D37" s="52" t="s">
@@ -3839,7 +3725,7 @@
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="57"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -3851,7 +3737,7 @@
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="57"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -3863,7 +3749,7 @@
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="57"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -3875,7 +3761,7 @@
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="57"/>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -3887,7 +3773,7 @@
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="57"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -3899,7 +3785,7 @@
       <c r="J42" s="52"/>
       <c r="K42" s="52"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="57"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -3911,7 +3797,7 @@
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="57"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
@@ -3923,7 +3809,7 @@
       <c r="J44" s="52"/>
       <c r="K44" s="52"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="57"/>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
@@ -3935,7 +3821,7 @@
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="57"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
@@ -3947,7 +3833,7 @@
       <c r="J46" s="52"/>
       <c r="K46" s="52"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="57"/>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
@@ -3959,7 +3845,7 @@
       <c r="J47" s="52"/>
       <c r="K47" s="52"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="57"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
@@ -3971,7 +3857,7 @@
       <c r="J48" s="52"/>
       <c r="K48" s="52"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="57"/>
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
@@ -3983,7 +3869,7 @@
       <c r="J49" s="52"/>
       <c r="K49" s="52"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="57"/>
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
@@ -3995,7 +3881,7 @@
       <c r="J50" s="52"/>
       <c r="K50" s="52"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="57"/>
       <c r="C51" s="52"/>
       <c r="D51" s="52">
@@ -4009,7 +3895,7 @@
       <c r="J51" s="52"/>
       <c r="K51" s="52"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="57"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -4021,7 +3907,7 @@
       <c r="J52" s="52"/>
       <c r="K52" s="52"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="57"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
@@ -4033,7 +3919,7 @@
       <c r="J53" s="52"/>
       <c r="K53" s="52"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="57"/>
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
@@ -4045,7 +3931,7 @@
       <c r="J54" s="52"/>
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="57"/>
       <c r="C55" s="92" t="s">
         <v>23</v>
@@ -4059,10 +3945,10 @@
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="57"/>
       <c r="C56" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="52"/>
@@ -4073,7 +3959,7 @@
       <c r="J56" s="52"/>
       <c r="K56" s="52"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="57"/>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
@@ -4085,7 +3971,7 @@
       <c r="J57" s="52"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="57"/>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
@@ -4097,7 +3983,7 @@
       <c r="J58" s="52"/>
       <c r="K58" s="52"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="57"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
@@ -4109,7 +3995,7 @@
       <c r="J59" s="52"/>
       <c r="K59" s="52"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="57"/>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
@@ -4121,7 +4007,7 @@
       <c r="J60" s="52"/>
       <c r="K60" s="52"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="57"/>
       <c r="C61" s="52"/>
       <c r="D61" s="52"/>
@@ -4133,7 +4019,7 @@
       <c r="J61" s="52"/>
       <c r="K61" s="52"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="57"/>
       <c r="C62" s="52"/>
       <c r="D62" s="52"/>
@@ -4145,7 +4031,7 @@
       <c r="J62" s="52"/>
       <c r="K62" s="52"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="57"/>
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
@@ -4157,7 +4043,7 @@
       <c r="J63" s="52"/>
       <c r="K63" s="52"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="57"/>
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
@@ -4169,7 +4055,7 @@
       <c r="J64" s="52"/>
       <c r="K64" s="52"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="57"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
@@ -4181,14 +4067,14 @@
       <c r="J65" s="52"/>
       <c r="K65" s="52"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="57"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52">
         <v>8000</v>
       </c>
       <c r="E66" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" s="52"/>
       <c r="G66" s="52"/>
@@ -4197,7 +4083,7 @@
       <c r="J66" s="52"/>
       <c r="K66" s="52"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="57"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
@@ -4209,7 +4095,7 @@
       <c r="J67" s="52"/>
       <c r="K67" s="52"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="57"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -4221,7 +4107,7 @@
       <c r="J68" s="52"/>
       <c r="K68" s="52"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="57"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
@@ -4233,7 +4119,7 @@
       <c r="J69" s="52"/>
       <c r="K69" s="52"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="57"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
@@ -4245,7 +4131,7 @@
       <c r="J70" s="52"/>
       <c r="K70" s="52"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="57"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
@@ -4257,7 +4143,7 @@
       <c r="J71" s="52"/>
       <c r="K71" s="52"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="57"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
@@ -4269,7 +4155,7 @@
       <c r="J72" s="52"/>
       <c r="K72" s="52"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="57"/>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
@@ -4281,7 +4167,7 @@
       <c r="J73" s="52"/>
       <c r="K73" s="52"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="57"/>
       <c r="C74" s="92" t="s">
         <v>26</v>
@@ -4295,7 +4181,7 @@
       <c r="J74" s="52"/>
       <c r="K74" s="52"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="57"/>
       <c r="C75" s="52"/>
       <c r="D75" s="52"/>
@@ -4307,7 +4193,7 @@
       <c r="J75" s="52"/>
       <c r="K75" s="52"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="57"/>
       <c r="C76" s="52"/>
       <c r="D76" s="52"/>
@@ -4319,7 +4205,7 @@
       <c r="J76" s="52"/>
       <c r="K76" s="52"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="57"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
@@ -4331,7 +4217,7 @@
       <c r="J77" s="52"/>
       <c r="K77" s="52"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="57"/>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -4343,7 +4229,7 @@
       <c r="J78" s="52"/>
       <c r="K78" s="52"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="57"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -4355,7 +4241,7 @@
       <c r="J79" s="52"/>
       <c r="K79" s="52"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="57"/>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -4367,7 +4253,7 @@
       <c r="J80" s="52"/>
       <c r="K80" s="52"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="57"/>
       <c r="C81" s="52"/>
       <c r="D81" s="52"/>
@@ -4379,7 +4265,7 @@
       <c r="J81" s="52"/>
       <c r="K81" s="52"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="57"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -4391,7 +4277,7 @@
       <c r="J82" s="52"/>
       <c r="K82" s="52"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="57"/>
       <c r="C83" s="52"/>
       <c r="D83" s="52"/>
@@ -4403,7 +4289,7 @@
       <c r="J83" s="52"/>
       <c r="K83" s="52"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="57"/>
       <c r="C84" s="52"/>
       <c r="D84" s="52"/>
@@ -4415,7 +4301,7 @@
       <c r="J84" s="52"/>
       <c r="K84" s="52"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="57"/>
       <c r="C85" s="52"/>
       <c r="D85" s="52"/>
@@ -4427,7 +4313,7 @@
       <c r="J85" s="52"/>
       <c r="K85" s="52"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="57"/>
       <c r="C86" s="52"/>
       <c r="D86" s="52"/>
@@ -4439,14 +4325,14 @@
       <c r="J86" s="52"/>
       <c r="K86" s="52"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="57"/>
       <c r="C87" s="52"/>
       <c r="D87" s="52">
         <v>10000</v>
       </c>
       <c r="E87" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F87" s="52"/>
       <c r="G87" s="52"/>
@@ -4455,7 +4341,7 @@
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="57"/>
       <c r="C88" s="52"/>
       <c r="D88" s="52"/>
@@ -4467,7 +4353,7 @@
       <c r="J88" s="52"/>
       <c r="K88" s="52"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="57"/>
       <c r="C89" s="52"/>
       <c r="D89" s="52"/>
@@ -4479,7 +4365,7 @@
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="57"/>
       <c r="C90" s="52"/>
       <c r="D90" s="52"/>
@@ -4491,7 +4377,7 @@
       <c r="J90" s="52"/>
       <c r="K90" s="52"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="57"/>
       <c r="C91" s="52"/>
       <c r="D91" s="52"/>
@@ -4503,7 +4389,7 @@
       <c r="J91" s="52"/>
       <c r="K91" s="52"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="57"/>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
@@ -4515,7 +4401,7 @@
       <c r="J92" s="52"/>
       <c r="K92" s="52"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="57"/>
       <c r="C93" s="52"/>
       <c r="D93" s="52"/>
@@ -4527,7 +4413,7 @@
       <c r="J93" s="52"/>
       <c r="K93" s="52"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="57"/>
       <c r="C94" s="92" t="s">
         <v>25</v>
@@ -4541,10 +4427,10 @@
       <c r="J94" s="52"/>
       <c r="K94" s="52"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="57"/>
       <c r="C95" s="92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
@@ -4555,7 +4441,7 @@
       <c r="J95" s="52"/>
       <c r="K95" s="52"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="57"/>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -4567,7 +4453,7 @@
       <c r="J96" s="52"/>
       <c r="K96" s="52"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="57"/>
       <c r="C97" s="52"/>
       <c r="D97" s="52"/>
@@ -4579,7 +4465,7 @@
       <c r="J97" s="52"/>
       <c r="K97" s="52"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="57"/>
       <c r="C98" s="52"/>
       <c r="D98" s="52"/>
@@ -4591,7 +4477,7 @@
       <c r="J98" s="52"/>
       <c r="K98" s="52"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="57"/>
       <c r="C99" s="52"/>
       <c r="D99" s="52"/>
@@ -4603,7 +4489,7 @@
       <c r="J99" s="52"/>
       <c r="K99" s="52"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="57"/>
       <c r="C100" s="52"/>
       <c r="D100" s="52"/>
@@ -4615,7 +4501,7 @@
       <c r="J100" s="52"/>
       <c r="K100" s="52"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="57"/>
       <c r="C101" s="52"/>
       <c r="D101" s="52"/>
@@ -4627,7 +4513,7 @@
       <c r="J101" s="52"/>
       <c r="K101" s="52"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="57"/>
       <c r="C102" s="52"/>
       <c r="D102" s="52"/>
@@ -4639,14 +4525,14 @@
       <c r="J102" s="52"/>
       <c r="K102" s="52"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="57"/>
       <c r="C103" s="52"/>
       <c r="D103" s="52">
         <v>10000</v>
       </c>
       <c r="E103" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F103" s="52"/>
       <c r="G103" s="52"/>
@@ -4655,7 +4541,7 @@
       <c r="J103" s="52"/>
       <c r="K103" s="52"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="57"/>
       <c r="C104" s="52"/>
       <c r="D104" s="52"/>
@@ -4667,7 +4553,7 @@
       <c r="J104" s="52"/>
       <c r="K104" s="52"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="57"/>
       <c r="C105" s="52"/>
       <c r="D105" s="52"/>
@@ -4679,7 +4565,7 @@
       <c r="J105" s="52"/>
       <c r="K105" s="52"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="57"/>
       <c r="C106" s="52"/>
       <c r="D106" s="52"/>
@@ -4691,7 +4577,7 @@
       <c r="J106" s="52"/>
       <c r="K106" s="52"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="57"/>
       <c r="C107" s="52"/>
       <c r="D107" s="52"/>
@@ -4707,10 +4593,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>